--- a/ELECTION BOARD.xlsx
+++ b/ELECTION BOARD.xlsx
@@ -592,7 +592,13 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -600,12 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +895,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AJ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,48 +911,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="5"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="U5" s="24" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="U5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="25"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
@@ -967,20 +967,20 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="25"/>
       <c r="U7" s="1" t="s">
         <v>14</v>
       </c>
@@ -992,15 +992,15 @@
       <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
       <c r="U8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,15 +1019,15 @@
       <c r="C9" s="21">
         <v>658</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="25">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="G9" s="27">
         <f>C9-D9-J9</f>
         <v>658</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
       <c r="U9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1042,25 +1042,25 @@
       <c r="C10" s="21">
         <v>3262</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="G10" s="25">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="G10" s="27">
         <f t="shared" ref="G10:G63" si="0">C10-D10-J10</f>
         <v>3262</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
       <c r="U10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V10">
         <v>51</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Y10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="Z10" s="24"/>
+      <c r="Z10" s="25"/>
       <c r="AA10">
         <v>560</v>
       </c>
@@ -1076,19 +1076,19 @@
       <c r="C11" s="21">
         <v>3073</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="25">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>3073</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="Y11" s="24" t="s">
+      <c r="H11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="Y11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="Z11" s="24"/>
+      <c r="Z11" s="25"/>
       <c r="AA11">
         <v>1893</v>
       </c>
@@ -1104,23 +1104,23 @@
       <c r="C12" s="21">
         <v>692</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="25">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>692</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="U12" s="24" t="s">
+      <c r="H12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="U12" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="Y12" s="24" t="s">
+      <c r="V12" s="25"/>
+      <c r="Y12" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="Z12" s="24"/>
+      <c r="Z12" s="25"/>
       <c r="AA12">
         <v>1641</v>
       </c>
@@ -1136,25 +1136,25 @@
       <c r="C13" s="21">
         <v>982</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="G13" s="25">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>982</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="H13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="U13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="V13" s="8">
         <v>1376</v>
       </c>
-      <c r="Y13" s="28" t="s">
+      <c r="Y13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="Z13" s="28"/>
+      <c r="Z13" s="26"/>
       <c r="AA13">
         <v>508</v>
       </c>
@@ -1170,25 +1170,25 @@
       <c r="C14" s="21">
         <v>1497</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="25">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>1497</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="U14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="V14" s="8">
         <v>103</v>
       </c>
-      <c r="Y14" s="24" t="s">
+      <c r="Y14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="Z14" s="24"/>
+      <c r="Z14" s="25"/>
       <c r="AA14">
         <v>491</v>
       </c>
@@ -1204,15 +1204,15 @@
       <c r="C15" s="21">
         <v>814</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="25">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>814</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="H15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="U15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1223,10 +1223,10 @@
         <f>SUM(V13:V17)</f>
         <v>1893</v>
       </c>
-      <c r="Y15" s="28" t="s">
+      <c r="Y15" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="Z15" s="28"/>
+      <c r="Z15" s="26"/>
       <c r="AA15">
         <v>833</v>
       </c>
@@ -1242,25 +1242,25 @@
       <c r="C16" s="21">
         <v>354</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="G16" s="25">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="H16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
       <c r="U16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V16" s="8">
         <v>65</v>
       </c>
-      <c r="Y16" s="24" t="s">
+      <c r="Y16" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="25"/>
       <c r="AA16">
         <v>407</v>
       </c>
@@ -1276,15 +1276,15 @@
       <c r="C17" s="21">
         <v>412</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="G17" s="25">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>412</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="H17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
       <c r="U17" s="1" t="s">
         <v>91</v>
       </c>
@@ -1296,12 +1296,12 @@
     <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
       <c r="U18" s="1"/>
       <c r="V18" s="8"/>
       <c r="Z18" s="6"/>
@@ -1310,24 +1310,24 @@
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="U19" s="24" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="U19" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="V19" s="24"/>
+      <c r="V19" s="25"/>
       <c r="Z19" s="6"/>
-      <c r="AE19" s="24" t="s">
+      <c r="AE19" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="AF19" s="24"/>
+      <c r="AF19" s="25"/>
       <c r="AG19">
         <v>462</v>
       </c>
@@ -1347,15 +1347,15 @@
       <c r="B20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
       <c r="U20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1363,10 +1363,10 @@
         <v>1288</v>
       </c>
       <c r="Z20" s="6"/>
-      <c r="AE20" s="24" t="s">
+      <c r="AE20" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AF20" s="24"/>
+      <c r="AF20" s="25"/>
       <c r="AG20">
         <v>524</v>
       </c>
@@ -1389,15 +1389,15 @@
       <c r="C21" s="21">
         <v>110</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="G21" s="25">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="G21" s="27">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="H21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
       <c r="U21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1409,10 +1409,10 @@
         <v>1641</v>
       </c>
       <c r="Z21" s="6"/>
-      <c r="AE21" s="24" t="s">
+      <c r="AE21" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="AF21" s="24"/>
+      <c r="AF21" s="25"/>
       <c r="AG21">
         <v>209</v>
       </c>
@@ -1435,15 +1435,15 @@
       <c r="C22" s="21">
         <v>96</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="G22" s="25">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="G22" s="27">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="H22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
       <c r="U22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1451,10 +1451,10 @@
         <v>160</v>
       </c>
       <c r="Z22" s="6"/>
-      <c r="AE22" s="28" t="s">
+      <c r="AE22" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="AF22" s="28"/>
+      <c r="AF22" s="26"/>
       <c r="AG22">
         <v>324</v>
       </c>
@@ -1477,15 +1477,15 @@
       <c r="C23" s="21">
         <v>43</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="G23" s="25">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="G23" s="27">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="H23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
       <c r="U23" s="1"/>
       <c r="V23" s="8"/>
       <c r="Z23" s="6"/>
@@ -1495,10 +1495,10 @@
       <c r="AC23">
         <v>524</v>
       </c>
-      <c r="AE23" s="24" t="s">
+      <c r="AE23" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="AF23" s="24"/>
+      <c r="AF23" s="25"/>
       <c r="AH23">
         <v>982</v>
       </c>
@@ -1518,19 +1518,19 @@
       <c r="C24" s="21">
         <v>32</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="G24" s="25">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="G24" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="U24" s="28" t="s">
+      <c r="H24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="U24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="V24" s="28"/>
+      <c r="V24" s="26"/>
       <c r="Z24" t="s">
         <v>9</v>
       </c>
@@ -1540,10 +1540,10 @@
       <c r="AC24">
         <v>209</v>
       </c>
-      <c r="AE24" s="28" t="s">
+      <c r="AE24" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="AF24" s="28"/>
+      <c r="AF24" s="26"/>
       <c r="AG24">
         <v>169</v>
       </c>
@@ -1566,15 +1566,15 @@
       <c r="C25" s="21">
         <v>21</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="G25" s="25">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="G25" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="H25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
       <c r="U25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1591,10 +1591,10 @@
       <c r="AC25">
         <v>324</v>
       </c>
-      <c r="AE25" s="24" t="s">
+      <c r="AE25" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AF25" s="24"/>
+      <c r="AF25" s="25"/>
       <c r="AG25">
         <v>214</v>
       </c>
@@ -1614,15 +1614,15 @@
       <c r="B26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
       <c r="U26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1643,15 +1643,15 @@
       <c r="C27" s="21">
         <v>51</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="G27" s="25">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="G27" s="27">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="H27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
       <c r="U27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1675,15 +1675,15 @@
       <c r="C28" s="21">
         <v>21</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="G28" s="25">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="G28" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="H28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
       <c r="U28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1708,15 +1708,15 @@
       <c r="C29" s="21">
         <v>9</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="G29" s="25">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="G29" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="H29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
       <c r="U29" s="1" t="s">
         <v>92</v>
       </c>
@@ -1728,15 +1728,15 @@
       <c r="B30" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
       <c r="U30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1757,15 +1757,15 @@
       <c r="C31" s="21">
         <v>87</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="G31" s="25">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="G31" s="27">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="H31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
       <c r="U31" s="1" t="s">
         <v>93</v>
       </c>
@@ -1784,15 +1784,15 @@
       <c r="C32" s="21">
         <v>53</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="G32" s="25">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="G32" s="27">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="H32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
       <c r="U32" s="1" t="s">
         <v>95</v>
       </c>
@@ -1807,15 +1807,15 @@
       <c r="C33" s="21">
         <v>21</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="G33" s="25">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="G33" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="H33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
       <c r="U33" s="1" t="s">
         <v>96</v>
       </c>
@@ -1833,15 +1833,15 @@
       <c r="C34" s="21">
         <v>6</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="G34" s="25">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="G34" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="H34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
       <c r="U34" s="1" t="s">
         <v>97</v>
       </c>
@@ -1857,15 +1857,15 @@
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
       <c r="U35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1880,15 +1880,15 @@
       <c r="C36" s="21">
         <v>53</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="G36" s="25">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="G36" s="27">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="H36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
       <c r="U36" s="8" t="s">
         <v>98</v>
       </c>
@@ -1906,15 +1906,15 @@
       <c r="C37" s="21">
         <v>27</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="G37" s="25">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="G37" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="H37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
       <c r="U37" s="1"/>
       <c r="V37" s="8"/>
       <c r="Z37">
@@ -1926,19 +1926,19 @@
       <c r="B38" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="U38" s="24" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="U38" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="V38" s="24"/>
+      <c r="V38" s="25"/>
     </row>
     <row r="39" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -1947,15 +1947,15 @@
       <c r="C39" s="21">
         <v>74</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="G39" s="25">
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="G39" s="27">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="H39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
       <c r="U39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1973,15 +1973,15 @@
       <c r="C40" s="21">
         <v>32</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="G40" s="25">
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="G40" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="H40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
       <c r="U40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1997,15 +1997,15 @@
       <c r="B41" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
       <c r="U41" s="1" t="s">
         <v>84</v>
       </c>
@@ -2024,15 +2024,15 @@
       <c r="C42" s="21">
         <v>83</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="G42" s="25">
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="G42" s="27">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
+      <c r="H42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
       <c r="U42" s="1" t="s">
         <v>85</v>
       </c>
@@ -2042,12 +2042,12 @@
     </row>
     <row r="43" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="21"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
       <c r="U43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2059,15 +2059,15 @@
       <c r="B44" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
       <c r="U44" s="1" t="s">
         <v>87</v>
       </c>
@@ -2079,15 +2079,15 @@
       <c r="B45" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
       <c r="U45" s="1" t="s">
         <v>88</v>
       </c>
@@ -2102,15 +2102,15 @@
       <c r="C46" s="21">
         <v>64</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="G46" s="25">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="G46" s="27">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
+      <c r="H46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
       <c r="U46" s="1"/>
       <c r="V46" s="8"/>
     </row>
@@ -2121,33 +2121,33 @@
       <c r="C47" s="21">
         <v>32</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="G47" s="25">
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="G47" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="U47" s="28" t="s">
+      <c r="H47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="U47" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="V47" s="28"/>
+      <c r="V47" s="26"/>
     </row>
     <row r="48" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
       <c r="U48" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,15 +2166,15 @@
       <c r="C49" s="21">
         <v>21</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="G49" s="25">
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="G49" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
+      <c r="H49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
       <c r="U49" s="1" t="s">
         <v>22</v>
       </c>
@@ -2189,15 +2189,15 @@
       <c r="C50" s="21">
         <v>6</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="G50" s="25">
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="G50" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
+      <c r="H50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
       <c r="U50" s="1" t="s">
         <v>25</v>
       </c>
@@ -2209,15 +2209,15 @@
       <c r="B51" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
       <c r="U51" s="1" t="s">
         <v>89</v>
       </c>
@@ -2232,15 +2232,15 @@
       <c r="C52" s="21">
         <v>42</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="G52" s="25">
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="G52" s="27">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
+      <c r="H52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
       <c r="U52" s="1" t="s">
         <v>90</v>
       </c>
@@ -2255,15 +2255,15 @@
       <c r="C53" s="21">
         <v>36</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="G53" s="25">
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="G53" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
+      <c r="H53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
       <c r="U53" s="1"/>
       <c r="V53" s="8"/>
     </row>
@@ -2274,15 +2274,15 @@
       <c r="C54" s="21">
         <v>12</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="G54" s="25">
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="G54" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
+      <c r="H54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
       <c r="U54" s="1"/>
       <c r="V54" s="8"/>
     </row>
@@ -2290,15 +2290,15 @@
       <c r="B55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
       <c r="U55" s="1"/>
       <c r="V55" s="8"/>
     </row>
@@ -2309,15 +2309,15 @@
       <c r="C56" s="21">
         <v>142</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="G56" s="25">
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="G56" s="27">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
+      <c r="H56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
     </row>
     <row r="57" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -2326,19 +2326,19 @@
       <c r="C57" s="21">
         <v>95</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="G57" s="25">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="G57" s="27">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="U57" s="24" t="s">
+      <c r="H57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="U57" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="V57" s="24"/>
+      <c r="V57" s="25"/>
       <c r="W57">
         <f>SUM(V58:V60)</f>
         <v>407</v>
@@ -2351,15 +2351,15 @@
       <c r="C58" s="21">
         <v>37</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="G58" s="25">
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="G58" s="27">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="H58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
+      <c r="H58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
       <c r="U58" s="1" t="s">
         <v>7</v>
       </c>
@@ -2374,15 +2374,15 @@
       <c r="C59" s="21">
         <v>13</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="G59" s="25">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="G59" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
+      <c r="H59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
       <c r="U59" s="1" t="s">
         <v>83</v>
       </c>
@@ -2394,15 +2394,15 @@
       <c r="B60" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
       <c r="U60" t="s">
         <v>94</v>
       </c>
@@ -2417,29 +2417,29 @@
       <c r="C61" s="21">
         <v>72</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="G61" s="25">
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="G61" s="27">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="H61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
+      <c r="H61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
     </row>
     <row r="62" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
     </row>
     <row r="63" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -2448,52 +2448,52 @@
       <c r="C63" s="21">
         <v>43</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="G63" s="25">
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="G63" s="27">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
+      <c r="H63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
     </row>
     <row r="64" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" s="21"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
     </row>
     <row r="65" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
@@ -2502,15 +2502,15 @@
       <c r="C67" s="21">
         <v>53</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="G67" s="25">
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="G67" s="27">
         <f t="shared" ref="G67:G89" si="4">C67-D67-J67</f>
         <v>53</v>
       </c>
-      <c r="H67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+      <c r="H67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
@@ -2519,29 +2519,29 @@
       <c r="C68" s="21">
         <v>48</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="G68" s="25">
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="G68" s="27">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="H68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
+      <c r="H68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
@@ -2550,29 +2550,29 @@
       <c r="C70" s="21">
         <v>34</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="G70" s="25">
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="G70" s="27">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="H70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
+      <c r="H70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
@@ -2581,29 +2581,29 @@
       <c r="C72" s="21">
         <v>64</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="G72" s="25">
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="G72" s="27">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="H72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
+      <c r="H72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
@@ -2612,15 +2612,15 @@
       <c r="C74" s="21">
         <v>72</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="G74" s="25">
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="G74" s="27">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
+      <c r="H74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
     </row>
     <row r="75" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
@@ -2629,29 +2629,29 @@
       <c r="C75" s="21">
         <v>21</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="G75" s="25">
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="G75" s="27">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
+      <c r="H75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
     </row>
     <row r="77" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
@@ -2660,29 +2660,29 @@
       <c r="C77" s="21">
         <v>36</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="G77" s="25">
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="G77" s="27">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="H77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
+      <c r="H77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
     </row>
     <row r="78" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
     </row>
     <row r="79" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
@@ -2691,52 +2691,52 @@
       <c r="C79" s="21">
         <v>43</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="G79" s="25">
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="G79" s="27">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="H79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="21"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
     </row>
     <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
@@ -2745,52 +2745,52 @@
       <c r="C83" s="21">
         <v>25</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="G83" s="25">
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="G83" s="27">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
+      <c r="H83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="21"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
     </row>
     <row r="85" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
     </row>
     <row r="86" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
     </row>
     <row r="87" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
@@ -2799,25 +2799,25 @@
       <c r="C87" s="21">
         <v>3</v>
       </c>
-      <c r="G87" s="25">
+      <c r="G87" s="27">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H87" s="25"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
     </row>
     <row r="89" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
@@ -2826,11 +2826,11 @@
       <c r="C89" s="21">
         <v>2</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G89" s="27">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H89" s="25"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C90" s="21"/>
@@ -2840,6 +2840,195 @@
     </row>
   </sheetData>
   <mergeCells count="213">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B2:H5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="C85:K85"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="C69:K69"/>
+    <mergeCell ref="C71:K71"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="C76:K76"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="C81:K81"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="G61:H61"/>
     <mergeCell ref="C86:K86"/>
     <mergeCell ref="C88:K88"/>
     <mergeCell ref="AE19:AF19"/>
@@ -2864,195 +3053,6 @@
     <mergeCell ref="J79:K79"/>
     <mergeCell ref="C62:K62"/>
     <mergeCell ref="C65:K65"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="C69:K69"/>
-    <mergeCell ref="C71:K71"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="C76:K76"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="C85:K85"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B2:H5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ELECTION BOARD.xlsx
+++ b/ELECTION BOARD.xlsx
@@ -5,14 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v4032\Desktop\HEXAGON-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v4032\Desktop\HEXAGON-Project\HEXAGON-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRESIDENTIAL ELECTION BOARD" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
   <si>
     <t>PRESIDENTIAL ELECTION BOARD</t>
   </si>
@@ -339,6 +340,18 @@
   </si>
   <si>
     <t>Central Pact</t>
+  </si>
+  <si>
+    <t>Primary Campaign Promesses</t>
+  </si>
+  <si>
+    <t>To whom?</t>
+  </si>
+  <si>
+    <t>+1.4% to Education</t>
+  </si>
+  <si>
+    <t>Raja Koraljka</t>
   </si>
 </sst>
 </file>
@@ -553,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -592,13 +605,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -606,6 +613,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +915,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AJ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,48 +931,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="5"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="U5" s="25" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="U5" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="V5" s="25"/>
+      <c r="V5" s="24"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
@@ -967,20 +987,20 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="24"/>
       <c r="U7" s="1" t="s">
         <v>14</v>
       </c>
@@ -992,15 +1012,15 @@
       <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
       <c r="U8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,15 +1039,15 @@
       <c r="C9" s="21">
         <v>658</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="G9" s="27">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="25">
         <f>C9-D9-J9</f>
         <v>658</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="H9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
       <c r="U9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1042,25 +1062,25 @@
       <c r="C10" s="21">
         <v>3262</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="G10" s="27">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="25">
         <f t="shared" ref="G10:G63" si="0">C10-D10-J10</f>
         <v>3262</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
       <c r="U10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V10">
         <v>51</v>
       </c>
-      <c r="Y10" s="25" t="s">
+      <c r="Y10" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="Z10" s="25"/>
+      <c r="Z10" s="24"/>
       <c r="AA10">
         <v>560</v>
       </c>
@@ -1076,19 +1096,19 @@
       <c r="C11" s="21">
         <v>3073</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="G11" s="27">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>3073</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="Y11" s="25" t="s">
+      <c r="H11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="Y11" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="Z11" s="25"/>
+      <c r="Z11" s="24"/>
       <c r="AA11">
         <v>1893</v>
       </c>
@@ -1104,23 +1124,23 @@
       <c r="C12" s="21">
         <v>692</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="G12" s="27">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="25">
         <f t="shared" si="0"/>
         <v>692</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="U12" s="25" t="s">
+      <c r="H12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="U12" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="Y12" s="25" t="s">
+      <c r="V12" s="24"/>
+      <c r="Y12" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Z12" s="25"/>
+      <c r="Z12" s="24"/>
       <c r="AA12">
         <v>1641</v>
       </c>
@@ -1136,25 +1156,25 @@
       <c r="C13" s="21">
         <v>982</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="G13" s="27">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="G13" s="25">
         <f t="shared" si="0"/>
         <v>982</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="U13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="V13" s="8">
         <v>1376</v>
       </c>
-      <c r="Y13" s="26" t="s">
+      <c r="Y13" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="Z13" s="26"/>
+      <c r="Z13" s="28"/>
       <c r="AA13">
         <v>508</v>
       </c>
@@ -1170,25 +1190,25 @@
       <c r="C14" s="21">
         <v>1497</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="G14" s="27">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="G14" s="25">
         <f t="shared" si="0"/>
         <v>1497</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="U14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="V14" s="8">
         <v>103</v>
       </c>
-      <c r="Y14" s="25" t="s">
+      <c r="Y14" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="Z14" s="25"/>
+      <c r="Z14" s="24"/>
       <c r="AA14">
         <v>491</v>
       </c>
@@ -1204,15 +1224,15 @@
       <c r="C15" s="21">
         <v>814</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="G15" s="27">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="25">
         <f t="shared" si="0"/>
         <v>814</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="U15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1223,10 +1243,10 @@
         <f>SUM(V13:V17)</f>
         <v>1893</v>
       </c>
-      <c r="Y15" s="26" t="s">
+      <c r="Y15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Z15" s="26"/>
+      <c r="Z15" s="28"/>
       <c r="AA15">
         <v>833</v>
       </c>
@@ -1242,25 +1262,25 @@
       <c r="C16" s="21">
         <v>354</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="G16" s="27">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="G16" s="25">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="H16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="U16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V16" s="8">
         <v>65</v>
       </c>
-      <c r="Y16" s="25" t="s">
+      <c r="Y16" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="Z16" s="25"/>
+      <c r="Z16" s="24"/>
       <c r="AA16">
         <v>407</v>
       </c>
@@ -1276,15 +1296,15 @@
       <c r="C17" s="21">
         <v>412</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="G17" s="27">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="G17" s="25">
         <f t="shared" si="0"/>
         <v>412</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="H17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="U17" s="1" t="s">
         <v>91</v>
       </c>
@@ -1296,12 +1316,12 @@
     <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
       <c r="U18" s="1"/>
       <c r="V18" s="8"/>
       <c r="Z18" s="6"/>
@@ -1310,24 +1330,24 @@
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="U19" s="25" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="U19" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="V19" s="25"/>
+      <c r="V19" s="24"/>
       <c r="Z19" s="6"/>
-      <c r="AE19" s="25" t="s">
+      <c r="AE19" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="AF19" s="25"/>
+      <c r="AF19" s="24"/>
       <c r="AG19">
         <v>462</v>
       </c>
@@ -1347,15 +1367,15 @@
       <c r="B20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="U20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1363,10 +1383,10 @@
         <v>1288</v>
       </c>
       <c r="Z20" s="6"/>
-      <c r="AE20" s="25" t="s">
+      <c r="AE20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AF20" s="25"/>
+      <c r="AF20" s="24"/>
       <c r="AG20">
         <v>524</v>
       </c>
@@ -1389,15 +1409,15 @@
       <c r="C21" s="21">
         <v>110</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="G21" s="27">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="G21" s="25">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="H21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
       <c r="U21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1409,10 +1429,10 @@
         <v>1641</v>
       </c>
       <c r="Z21" s="6"/>
-      <c r="AE21" s="25" t="s">
+      <c r="AE21" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="AF21" s="25"/>
+      <c r="AF21" s="24"/>
       <c r="AG21">
         <v>209</v>
       </c>
@@ -1435,15 +1455,15 @@
       <c r="C22" s="21">
         <v>96</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="G22" s="27">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="G22" s="25">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="H22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
       <c r="U22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1451,10 +1471,10 @@
         <v>160</v>
       </c>
       <c r="Z22" s="6"/>
-      <c r="AE22" s="26" t="s">
+      <c r="AE22" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="AF22" s="26"/>
+      <c r="AF22" s="28"/>
       <c r="AG22">
         <v>324</v>
       </c>
@@ -1477,15 +1497,15 @@
       <c r="C23" s="21">
         <v>43</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="G23" s="27">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="G23" s="25">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="H23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
       <c r="U23" s="1"/>
       <c r="V23" s="8"/>
       <c r="Z23" s="6"/>
@@ -1495,10 +1515,10 @@
       <c r="AC23">
         <v>524</v>
       </c>
-      <c r="AE23" s="25" t="s">
+      <c r="AE23" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AF23" s="25"/>
+      <c r="AF23" s="24"/>
       <c r="AH23">
         <v>982</v>
       </c>
@@ -1518,19 +1538,19 @@
       <c r="C24" s="21">
         <v>32</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="G24" s="27">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="G24" s="25">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="U24" s="26" t="s">
+      <c r="H24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="U24" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="V24" s="26"/>
+      <c r="V24" s="28"/>
       <c r="Z24" t="s">
         <v>9</v>
       </c>
@@ -1540,10 +1560,10 @@
       <c r="AC24">
         <v>209</v>
       </c>
-      <c r="AE24" s="26" t="s">
+      <c r="AE24" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="AF24" s="26"/>
+      <c r="AF24" s="28"/>
       <c r="AG24">
         <v>169</v>
       </c>
@@ -1566,15 +1586,15 @@
       <c r="C25" s="21">
         <v>21</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="G25" s="27">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="G25" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="H25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
       <c r="U25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1591,10 +1611,10 @@
       <c r="AC25">
         <v>324</v>
       </c>
-      <c r="AE25" s="25" t="s">
+      <c r="AE25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="AF25" s="25"/>
+      <c r="AF25" s="24"/>
       <c r="AG25">
         <v>214</v>
       </c>
@@ -1614,15 +1634,15 @@
       <c r="B26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
       <c r="U26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1643,15 +1663,15 @@
       <c r="C27" s="21">
         <v>51</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="G27" s="27">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="G27" s="25">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="H27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
       <c r="U27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1675,15 +1695,15 @@
       <c r="C28" s="21">
         <v>21</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="G28" s="27">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="G28" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="H28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
       <c r="U28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1708,15 +1728,15 @@
       <c r="C29" s="21">
         <v>9</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="G29" s="27">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="G29" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
+      <c r="H29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
       <c r="U29" s="1" t="s">
         <v>92</v>
       </c>
@@ -1728,15 +1748,15 @@
       <c r="B30" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
       <c r="U30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1757,15 +1777,15 @@
       <c r="C31" s="21">
         <v>87</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="G31" s="27">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="G31" s="25">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="H31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
       <c r="U31" s="1" t="s">
         <v>93</v>
       </c>
@@ -1784,15 +1804,15 @@
       <c r="C32" s="21">
         <v>53</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="G32" s="27">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="G32" s="25">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="H32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="U32" s="1" t="s">
         <v>95</v>
       </c>
@@ -1807,15 +1827,15 @@
       <c r="C33" s="21">
         <v>21</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="G33" s="27">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="G33" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
+      <c r="H33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
       <c r="U33" s="1" t="s">
         <v>96</v>
       </c>
@@ -1833,15 +1853,15 @@
       <c r="C34" s="21">
         <v>6</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="G34" s="27">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="G34" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="H34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
       <c r="U34" s="1" t="s">
         <v>97</v>
       </c>
@@ -1857,15 +1877,15 @@
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
       <c r="U35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1880,15 +1900,15 @@
       <c r="C36" s="21">
         <v>53</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="G36" s="27">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="G36" s="25">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+      <c r="H36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
       <c r="U36" s="8" t="s">
         <v>98</v>
       </c>
@@ -1906,15 +1926,15 @@
       <c r="C37" s="21">
         <v>27</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="G37" s="27">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="G37" s="25">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
+      <c r="H37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
       <c r="U37" s="1"/>
       <c r="V37" s="8"/>
       <c r="Z37">
@@ -1926,19 +1946,19 @@
       <c r="B38" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="U38" s="25" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="U38" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="V38" s="25"/>
+      <c r="V38" s="24"/>
     </row>
     <row r="39" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -1947,15 +1967,15 @@
       <c r="C39" s="21">
         <v>74</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="G39" s="27">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="G39" s="25">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
+      <c r="H39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
       <c r="U39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1973,15 +1993,15 @@
       <c r="C40" s="21">
         <v>32</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="G40" s="27">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="G40" s="25">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
       <c r="U40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1997,15 +2017,15 @@
       <c r="B41" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
       <c r="U41" s="1" t="s">
         <v>84</v>
       </c>
@@ -2024,15 +2044,15 @@
       <c r="C42" s="21">
         <v>83</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="G42" s="27">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="G42" s="25">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="H42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
       <c r="U42" s="1" t="s">
         <v>85</v>
       </c>
@@ -2042,12 +2062,12 @@
     </row>
     <row r="43" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="21"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
       <c r="U43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2059,15 +2079,15 @@
       <c r="B44" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
       <c r="U44" s="1" t="s">
         <v>87</v>
       </c>
@@ -2079,15 +2099,15 @@
       <c r="B45" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
       <c r="U45" s="1" t="s">
         <v>88</v>
       </c>
@@ -2102,15 +2122,15 @@
       <c r="C46" s="21">
         <v>64</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="G46" s="27">
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="G46" s="25">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
+      <c r="H46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
       <c r="U46" s="1"/>
       <c r="V46" s="8"/>
     </row>
@@ -2121,33 +2141,33 @@
       <c r="C47" s="21">
         <v>32</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="G47" s="27">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="G47" s="25">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="U47" s="26" t="s">
+      <c r="H47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="U47" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="V47" s="26"/>
+      <c r="V47" s="28"/>
     </row>
     <row r="48" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
       <c r="U48" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,15 +2186,15 @@
       <c r="C49" s="21">
         <v>21</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="G49" s="27">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="G49" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
+      <c r="H49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
       <c r="U49" s="1" t="s">
         <v>22</v>
       </c>
@@ -2189,15 +2209,15 @@
       <c r="C50" s="21">
         <v>6</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="G50" s="27">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="G50" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
       <c r="U50" s="1" t="s">
         <v>25</v>
       </c>
@@ -2209,15 +2229,15 @@
       <c r="B51" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
       <c r="U51" s="1" t="s">
         <v>89</v>
       </c>
@@ -2232,15 +2252,15 @@
       <c r="C52" s="21">
         <v>42</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="G52" s="27">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="G52" s="25">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="H52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
       <c r="U52" s="1" t="s">
         <v>90</v>
       </c>
@@ -2255,15 +2275,15 @@
       <c r="C53" s="21">
         <v>36</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="G53" s="27">
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="G53" s="25">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="H53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
       <c r="U53" s="1"/>
       <c r="V53" s="8"/>
     </row>
@@ -2274,15 +2294,15 @@
       <c r="C54" s="21">
         <v>12</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="G54" s="27">
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="G54" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
+      <c r="H54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
       <c r="U54" s="1"/>
       <c r="V54" s="8"/>
     </row>
@@ -2290,15 +2310,15 @@
       <c r="B55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
       <c r="U55" s="1"/>
       <c r="V55" s="8"/>
     </row>
@@ -2309,15 +2329,15 @@
       <c r="C56" s="21">
         <v>142</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="G56" s="27">
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="G56" s="25">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="H56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
+      <c r="H56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
     </row>
     <row r="57" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -2326,19 +2346,19 @@
       <c r="C57" s="21">
         <v>95</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="G57" s="27">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="G57" s="25">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="H57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="U57" s="25" t="s">
+      <c r="H57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="U57" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="V57" s="25"/>
+      <c r="V57" s="24"/>
       <c r="W57">
         <f>SUM(V58:V60)</f>
         <v>407</v>
@@ -2351,15 +2371,15 @@
       <c r="C58" s="21">
         <v>37</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="G58" s="27">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="G58" s="25">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="H58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
+      <c r="H58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
       <c r="U58" s="1" t="s">
         <v>7</v>
       </c>
@@ -2374,15 +2394,15 @@
       <c r="C59" s="21">
         <v>13</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="G59" s="27">
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="G59" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
+      <c r="H59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
       <c r="U59" s="1" t="s">
         <v>83</v>
       </c>
@@ -2394,15 +2414,15 @@
       <c r="B60" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
       <c r="U60" t="s">
         <v>94</v>
       </c>
@@ -2417,29 +2437,29 @@
       <c r="C61" s="21">
         <v>72</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="G61" s="27">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="G61" s="25">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
+      <c r="H61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
     </row>
     <row r="62" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
     </row>
     <row r="63" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -2448,52 +2468,52 @@
       <c r="C63" s="21">
         <v>43</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="G63" s="27">
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="G63" s="25">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
+      <c r="H63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
     </row>
     <row r="64" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" s="21"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
     </row>
     <row r="65" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
@@ -2502,15 +2522,15 @@
       <c r="C67" s="21">
         <v>53</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="G67" s="27">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="G67" s="25">
         <f t="shared" ref="G67:G89" si="4">C67-D67-J67</f>
         <v>53</v>
       </c>
-      <c r="H67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
+      <c r="H67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
@@ -2519,29 +2539,29 @@
       <c r="C68" s="21">
         <v>48</v>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="G68" s="27">
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="G68" s="25">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="H68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
+      <c r="H68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
@@ -2550,29 +2570,29 @@
       <c r="C70" s="21">
         <v>34</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="G70" s="27">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="G70" s="25">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="H70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="H70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
@@ -2581,29 +2601,29 @@
       <c r="C72" s="21">
         <v>64</v>
       </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="G72" s="27">
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="G72" s="25">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="H72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
+      <c r="H72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
     </row>
     <row r="73" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
@@ -2612,15 +2632,15 @@
       <c r="C74" s="21">
         <v>72</v>
       </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="G74" s="27">
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="G74" s="25">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="H74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="H74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
     </row>
     <row r="75" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
@@ -2629,29 +2649,29 @@
       <c r="C75" s="21">
         <v>21</v>
       </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="G75" s="27">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="G75" s="25">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="H75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="H75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
     </row>
     <row r="76" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
     </row>
     <row r="77" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
@@ -2660,29 +2680,29 @@
       <c r="C77" s="21">
         <v>36</v>
       </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="G77" s="27">
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="G77" s="25">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="H77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
+      <c r="H77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
     </row>
     <row r="78" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
     </row>
     <row r="79" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
@@ -2691,52 +2711,52 @@
       <c r="C79" s="21">
         <v>43</v>
       </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="G79" s="27">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="G79" s="25">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="H79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
+      <c r="H79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="21"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
     </row>
     <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
@@ -2745,52 +2765,52 @@
       <c r="C83" s="21">
         <v>25</v>
       </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="G83" s="27">
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="G83" s="25">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
+      <c r="H83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="21"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
     </row>
     <row r="85" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
     </row>
     <row r="86" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
     </row>
     <row r="87" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
@@ -2799,25 +2819,25 @@
       <c r="C87" s="21">
         <v>3</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G87" s="25">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H87" s="27"/>
+      <c r="H87" s="25"/>
     </row>
     <row r="88" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
     </row>
     <row r="89" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
@@ -2826,11 +2846,11 @@
       <c r="C89" s="21">
         <v>2</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G89" s="25">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H89" s="27"/>
+      <c r="H89" s="25"/>
     </row>
     <row r="90" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C90" s="21"/>
@@ -2840,34 +2860,167 @@
     </row>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C86:K86"/>
+    <mergeCell ref="C88:K88"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="C62:K62"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="C69:K69"/>
+    <mergeCell ref="C71:K71"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="C76:K76"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="C81:K81"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="C85:K85"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
@@ -2892,169 +3045,264 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="C85:K85"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="C69:K69"/>
-    <mergeCell ref="C71:K71"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="C76:K76"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C86:K86"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="C62:K62"/>
-    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>